--- a/Tier_List/Tier_List_紫.xlsx
+++ b/Tier_List/Tier_List_紫.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatematsukenichirou/Desktop/my_page/MyGame/ヤムチャゲーム/Tier_List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AE68E-6E30-A240-B4F6-C25E8B823B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815AB2B5-BA1F-2648-B2B8-E6E78550A0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{5855CEF1-D0F8-4B40-86B7-CA599209ABDB}"/>
+    <workbookView xWindow="14920" yWindow="500" windowWidth="13620" windowHeight="16260" xr2:uid="{5855CEF1-D0F8-4B40-86B7-CA599209ABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>転すら(リムル)</t>
   </si>
@@ -129,6 +129,90 @@
   </si>
   <si>
     <t>呪術(京都校)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAO(プログレッシブ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キン肉マン(悪魔超人)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キン肉マン(完璧超人)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まどマギ(ほむら)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まどマギ(ピュエラ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まどマギ(ほむら&amp;まみ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽遊白書(戸愚呂兄弟)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NIKKE(ピルグリム_インヘルト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノワール(黒仮面)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノワール(トキオ&amp;ムートン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンターハンター(ゾルディック)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャニマス(ALSTROEMERIA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードギアス(ルルーシュ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dr.STONE(司帝国)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀魂(高杉&amp;神威)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードギアス(四聖剣)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トリコ(美食會)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NIKKE(ピルグリム_パイオニア)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄拳(飛鳥＆リリ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄拳(三島財閥)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼滅の刃(紫堕姫&amp;妓夫太郎)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +317,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454932CE-C725-464C-8BE2-F621251343CA}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -591,15 +678,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
@@ -607,23 +694,23 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
         <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
         <v>3</v>
@@ -631,15 +718,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -647,71 +734,71 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-    </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -727,53 +814,224 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>23</v>
+      <c r="A20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>24</v>
+      <c r="A21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>20</v>
+      <c r="A22" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>21</v>
+      <c r="A23" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B23" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>22</v>
+      <c r="A24" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B24" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
         <v>4</v>
       </c>
     </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
+    <sortCondition ref="A2:A45"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
